--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -500,6 +500,74 @@
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32720" yWindow="5240" windowWidth="24100" windowHeight="14880" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -443,42 +443,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -493,6 +457,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,7 +1079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -1094,6 +1095,9 @@
         <is>
           <t>BEbIC BAU Employment by ISIC Code</t>
         </is>
+      </c>
+      <c r="C1" s="56" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1262,8 +1266,8 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
-    <col width="9.1640625" customWidth="1" style="6" min="58" max="60"/>
-    <col width="9.1640625" customWidth="1" style="6" min="61" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="58" max="61"/>
+    <col width="9.1640625" customWidth="1" style="6" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1285,788 +1289,788 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Indicator</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="32" t="inlineStr">
+      <c r="B3" s="39" t="n"/>
+      <c r="C3" s="51" t="inlineStr">
         <is>
           <t>EMPN: Employment</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="33" t="n"/>
-      <c r="O3" s="33" t="n"/>
-      <c r="P3" s="33" t="n"/>
-      <c r="Q3" s="33" t="n"/>
-      <c r="R3" s="33" t="n"/>
-      <c r="S3" s="33" t="n"/>
-      <c r="T3" s="33" t="n"/>
-      <c r="U3" s="33" t="n"/>
-      <c r="V3" s="33" t="n"/>
-      <c r="W3" s="33" t="n"/>
-      <c r="X3" s="33" t="n"/>
-      <c r="Y3" s="33" t="n"/>
-      <c r="Z3" s="33" t="n"/>
-      <c r="AA3" s="33" t="n"/>
-      <c r="AB3" s="33" t="n"/>
-      <c r="AC3" s="33" t="n"/>
-      <c r="AD3" s="33" t="n"/>
-      <c r="AE3" s="33" t="n"/>
-      <c r="AF3" s="33" t="n"/>
-      <c r="AG3" s="33" t="n"/>
-      <c r="AH3" s="33" t="n"/>
-      <c r="AI3" s="33" t="n"/>
-      <c r="AJ3" s="33" t="n"/>
-      <c r="AK3" s="33" t="n"/>
-      <c r="AL3" s="33" t="n"/>
-      <c r="AM3" s="33" t="n"/>
-      <c r="AN3" s="33" t="n"/>
-      <c r="AO3" s="33" t="n"/>
-      <c r="AP3" s="33" t="n"/>
-      <c r="AQ3" s="33" t="n"/>
-      <c r="AR3" s="33" t="n"/>
-      <c r="AS3" s="33" t="n"/>
-      <c r="AT3" s="33" t="n"/>
-      <c r="AU3" s="33" t="n"/>
-      <c r="AV3" s="33" t="n"/>
-      <c r="AW3" s="33" t="n"/>
-      <c r="AX3" s="33" t="n"/>
-      <c r="AY3" s="33" t="n"/>
-      <c r="AZ3" s="33" t="n"/>
-      <c r="BA3" s="33" t="n"/>
-      <c r="BB3" s="33" t="n"/>
-      <c r="BC3" s="33" t="n"/>
-      <c r="BD3" s="33" t="n"/>
-      <c r="BE3" s="31" t="n"/>
+      <c r="D3" s="42" t="n"/>
+      <c r="E3" s="42" t="n"/>
+      <c r="F3" s="42" t="n"/>
+      <c r="G3" s="42" t="n"/>
+      <c r="H3" s="42" t="n"/>
+      <c r="I3" s="42" t="n"/>
+      <c r="J3" s="42" t="n"/>
+      <c r="K3" s="42" t="n"/>
+      <c r="L3" s="42" t="n"/>
+      <c r="M3" s="42" t="n"/>
+      <c r="N3" s="42" t="n"/>
+      <c r="O3" s="42" t="n"/>
+      <c r="P3" s="42" t="n"/>
+      <c r="Q3" s="42" t="n"/>
+      <c r="R3" s="42" t="n"/>
+      <c r="S3" s="42" t="n"/>
+      <c r="T3" s="42" t="n"/>
+      <c r="U3" s="42" t="n"/>
+      <c r="V3" s="42" t="n"/>
+      <c r="W3" s="42" t="n"/>
+      <c r="X3" s="42" t="n"/>
+      <c r="Y3" s="42" t="n"/>
+      <c r="Z3" s="42" t="n"/>
+      <c r="AA3" s="42" t="n"/>
+      <c r="AB3" s="42" t="n"/>
+      <c r="AC3" s="42" t="n"/>
+      <c r="AD3" s="42" t="n"/>
+      <c r="AE3" s="42" t="n"/>
+      <c r="AF3" s="42" t="n"/>
+      <c r="AG3" s="42" t="n"/>
+      <c r="AH3" s="42" t="n"/>
+      <c r="AI3" s="42" t="n"/>
+      <c r="AJ3" s="42" t="n"/>
+      <c r="AK3" s="42" t="n"/>
+      <c r="AL3" s="42" t="n"/>
+      <c r="AM3" s="42" t="n"/>
+      <c r="AN3" s="42" t="n"/>
+      <c r="AO3" s="42" t="n"/>
+      <c r="AP3" s="42" t="n"/>
+      <c r="AQ3" s="42" t="n"/>
+      <c r="AR3" s="42" t="n"/>
+      <c r="AS3" s="42" t="n"/>
+      <c r="AT3" s="42" t="n"/>
+      <c r="AU3" s="42" t="n"/>
+      <c r="AV3" s="42" t="n"/>
+      <c r="AW3" s="42" t="n"/>
+      <c r="AX3" s="42" t="n"/>
+      <c r="AY3" s="42" t="n"/>
+      <c r="AZ3" s="42" t="n"/>
+      <c r="BA3" s="42" t="n"/>
+      <c r="BB3" s="42" t="n"/>
+      <c r="BC3" s="42" t="n"/>
+      <c r="BD3" s="42" t="n"/>
+      <c r="BE3" s="39" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Partner</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="34" t="inlineStr">
+      <c r="B4" s="39" t="n"/>
+      <c r="C4" s="44" t="inlineStr">
         <is>
           <t>WLD: World</t>
         </is>
       </c>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="33" t="n"/>
-      <c r="N4" s="33" t="n"/>
-      <c r="O4" s="33" t="n"/>
-      <c r="P4" s="33" t="n"/>
-      <c r="Q4" s="33" t="n"/>
-      <c r="R4" s="33" t="n"/>
-      <c r="S4" s="33" t="n"/>
-      <c r="T4" s="33" t="n"/>
-      <c r="U4" s="33" t="n"/>
-      <c r="V4" s="33" t="n"/>
-      <c r="W4" s="33" t="n"/>
-      <c r="X4" s="33" t="n"/>
-      <c r="Y4" s="33" t="n"/>
-      <c r="Z4" s="33" t="n"/>
-      <c r="AA4" s="33" t="n"/>
-      <c r="AB4" s="33" t="n"/>
-      <c r="AC4" s="33" t="n"/>
-      <c r="AD4" s="33" t="n"/>
-      <c r="AE4" s="33" t="n"/>
-      <c r="AF4" s="33" t="n"/>
-      <c r="AG4" s="33" t="n"/>
-      <c r="AH4" s="33" t="n"/>
-      <c r="AI4" s="33" t="n"/>
-      <c r="AJ4" s="33" t="n"/>
-      <c r="AK4" s="33" t="n"/>
-      <c r="AL4" s="33" t="n"/>
-      <c r="AM4" s="33" t="n"/>
-      <c r="AN4" s="33" t="n"/>
-      <c r="AO4" s="33" t="n"/>
-      <c r="AP4" s="33" t="n"/>
-      <c r="AQ4" s="33" t="n"/>
-      <c r="AR4" s="33" t="n"/>
-      <c r="AS4" s="33" t="n"/>
-      <c r="AT4" s="33" t="n"/>
-      <c r="AU4" s="33" t="n"/>
-      <c r="AV4" s="33" t="n"/>
-      <c r="AW4" s="33" t="n"/>
-      <c r="AX4" s="33" t="n"/>
-      <c r="AY4" s="33" t="n"/>
-      <c r="AZ4" s="33" t="n"/>
-      <c r="BA4" s="33" t="n"/>
-      <c r="BB4" s="33" t="n"/>
-      <c r="BC4" s="33" t="n"/>
-      <c r="BD4" s="33" t="n"/>
-      <c r="BE4" s="31" t="n"/>
+      <c r="D4" s="42" t="n"/>
+      <c r="E4" s="42" t="n"/>
+      <c r="F4" s="42" t="n"/>
+      <c r="G4" s="42" t="n"/>
+      <c r="H4" s="42" t="n"/>
+      <c r="I4" s="42" t="n"/>
+      <c r="J4" s="42" t="n"/>
+      <c r="K4" s="42" t="n"/>
+      <c r="L4" s="42" t="n"/>
+      <c r="M4" s="42" t="n"/>
+      <c r="N4" s="42" t="n"/>
+      <c r="O4" s="42" t="n"/>
+      <c r="P4" s="42" t="n"/>
+      <c r="Q4" s="42" t="n"/>
+      <c r="R4" s="42" t="n"/>
+      <c r="S4" s="42" t="n"/>
+      <c r="T4" s="42" t="n"/>
+      <c r="U4" s="42" t="n"/>
+      <c r="V4" s="42" t="n"/>
+      <c r="W4" s="42" t="n"/>
+      <c r="X4" s="42" t="n"/>
+      <c r="Y4" s="42" t="n"/>
+      <c r="Z4" s="42" t="n"/>
+      <c r="AA4" s="42" t="n"/>
+      <c r="AB4" s="42" t="n"/>
+      <c r="AC4" s="42" t="n"/>
+      <c r="AD4" s="42" t="n"/>
+      <c r="AE4" s="42" t="n"/>
+      <c r="AF4" s="42" t="n"/>
+      <c r="AG4" s="42" t="n"/>
+      <c r="AH4" s="42" t="n"/>
+      <c r="AI4" s="42" t="n"/>
+      <c r="AJ4" s="42" t="n"/>
+      <c r="AK4" s="42" t="n"/>
+      <c r="AL4" s="42" t="n"/>
+      <c r="AM4" s="42" t="n"/>
+      <c r="AN4" s="42" t="n"/>
+      <c r="AO4" s="42" t="n"/>
+      <c r="AP4" s="42" t="n"/>
+      <c r="AQ4" s="42" t="n"/>
+      <c r="AR4" s="42" t="n"/>
+      <c r="AS4" s="42" t="n"/>
+      <c r="AT4" s="42" t="n"/>
+      <c r="AU4" s="42" t="n"/>
+      <c r="AV4" s="42" t="n"/>
+      <c r="AW4" s="42" t="n"/>
+      <c r="AX4" s="42" t="n"/>
+      <c r="AY4" s="42" t="n"/>
+      <c r="AZ4" s="42" t="n"/>
+      <c r="BA4" s="42" t="n"/>
+      <c r="BB4" s="42" t="n"/>
+      <c r="BC4" s="42" t="n"/>
+      <c r="BD4" s="42" t="n"/>
+      <c r="BE4" s="39" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="34" t="inlineStr">
+      <c r="B5" s="39" t="n"/>
+      <c r="C5" s="44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="33" t="n"/>
-      <c r="N5" s="33" t="n"/>
-      <c r="O5" s="33" t="n"/>
-      <c r="P5" s="33" t="n"/>
-      <c r="Q5" s="33" t="n"/>
-      <c r="R5" s="33" t="n"/>
-      <c r="S5" s="33" t="n"/>
-      <c r="T5" s="33" t="n"/>
-      <c r="U5" s="33" t="n"/>
-      <c r="V5" s="33" t="n"/>
-      <c r="W5" s="33" t="n"/>
-      <c r="X5" s="33" t="n"/>
-      <c r="Y5" s="33" t="n"/>
-      <c r="Z5" s="33" t="n"/>
-      <c r="AA5" s="33" t="n"/>
-      <c r="AB5" s="33" t="n"/>
-      <c r="AC5" s="33" t="n"/>
-      <c r="AD5" s="33" t="n"/>
-      <c r="AE5" s="33" t="n"/>
-      <c r="AF5" s="33" t="n"/>
-      <c r="AG5" s="33" t="n"/>
-      <c r="AH5" s="33" t="n"/>
-      <c r="AI5" s="33" t="n"/>
-      <c r="AJ5" s="33" t="n"/>
-      <c r="AK5" s="33" t="n"/>
-      <c r="AL5" s="33" t="n"/>
-      <c r="AM5" s="33" t="n"/>
-      <c r="AN5" s="33" t="n"/>
-      <c r="AO5" s="33" t="n"/>
-      <c r="AP5" s="33" t="n"/>
-      <c r="AQ5" s="33" t="n"/>
-      <c r="AR5" s="33" t="n"/>
-      <c r="AS5" s="33" t="n"/>
-      <c r="AT5" s="33" t="n"/>
-      <c r="AU5" s="33" t="n"/>
-      <c r="AV5" s="33" t="n"/>
-      <c r="AW5" s="33" t="n"/>
-      <c r="AX5" s="33" t="n"/>
-      <c r="AY5" s="33" t="n"/>
-      <c r="AZ5" s="33" t="n"/>
-      <c r="BA5" s="33" t="n"/>
-      <c r="BB5" s="33" t="n"/>
-      <c r="BC5" s="33" t="n"/>
-      <c r="BD5" s="33" t="n"/>
-      <c r="BE5" s="31" t="n"/>
+      <c r="D5" s="42" t="n"/>
+      <c r="E5" s="42" t="n"/>
+      <c r="F5" s="42" t="n"/>
+      <c r="G5" s="42" t="n"/>
+      <c r="H5" s="42" t="n"/>
+      <c r="I5" s="42" t="n"/>
+      <c r="J5" s="42" t="n"/>
+      <c r="K5" s="42" t="n"/>
+      <c r="L5" s="42" t="n"/>
+      <c r="M5" s="42" t="n"/>
+      <c r="N5" s="42" t="n"/>
+      <c r="O5" s="42" t="n"/>
+      <c r="P5" s="42" t="n"/>
+      <c r="Q5" s="42" t="n"/>
+      <c r="R5" s="42" t="n"/>
+      <c r="S5" s="42" t="n"/>
+      <c r="T5" s="42" t="n"/>
+      <c r="U5" s="42" t="n"/>
+      <c r="V5" s="42" t="n"/>
+      <c r="W5" s="42" t="n"/>
+      <c r="X5" s="42" t="n"/>
+      <c r="Y5" s="42" t="n"/>
+      <c r="Z5" s="42" t="n"/>
+      <c r="AA5" s="42" t="n"/>
+      <c r="AB5" s="42" t="n"/>
+      <c r="AC5" s="42" t="n"/>
+      <c r="AD5" s="42" t="n"/>
+      <c r="AE5" s="42" t="n"/>
+      <c r="AF5" s="42" t="n"/>
+      <c r="AG5" s="42" t="n"/>
+      <c r="AH5" s="42" t="n"/>
+      <c r="AI5" s="42" t="n"/>
+      <c r="AJ5" s="42" t="n"/>
+      <c r="AK5" s="42" t="n"/>
+      <c r="AL5" s="42" t="n"/>
+      <c r="AM5" s="42" t="n"/>
+      <c r="AN5" s="42" t="n"/>
+      <c r="AO5" s="42" t="n"/>
+      <c r="AP5" s="42" t="n"/>
+      <c r="AQ5" s="42" t="n"/>
+      <c r="AR5" s="42" t="n"/>
+      <c r="AS5" s="42" t="n"/>
+      <c r="AT5" s="42" t="n"/>
+      <c r="AU5" s="42" t="n"/>
+      <c r="AV5" s="42" t="n"/>
+      <c r="AW5" s="42" t="n"/>
+      <c r="AX5" s="42" t="n"/>
+      <c r="AY5" s="42" t="n"/>
+      <c r="AZ5" s="42" t="n"/>
+      <c r="BA5" s="42" t="n"/>
+      <c r="BB5" s="42" t="n"/>
+      <c r="BC5" s="42" t="n"/>
+      <c r="BD5" s="42" t="n"/>
+      <c r="BE5" s="39" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="43" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="34" t="inlineStr">
+      <c r="B6" s="39" t="n"/>
+      <c r="C6" s="44" t="inlineStr">
         <is>
           <t>Persons, Thousands</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="33" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="33" t="n"/>
-      <c r="M6" s="33" t="n"/>
-      <c r="N6" s="33" t="n"/>
-      <c r="O6" s="33" t="n"/>
-      <c r="P6" s="33" t="n"/>
-      <c r="Q6" s="33" t="n"/>
-      <c r="R6" s="33" t="n"/>
-      <c r="S6" s="33" t="n"/>
-      <c r="T6" s="33" t="n"/>
-      <c r="U6" s="33" t="n"/>
-      <c r="V6" s="33" t="n"/>
-      <c r="W6" s="33" t="n"/>
-      <c r="X6" s="33" t="n"/>
-      <c r="Y6" s="33" t="n"/>
-      <c r="Z6" s="33" t="n"/>
-      <c r="AA6" s="33" t="n"/>
-      <c r="AB6" s="33" t="n"/>
-      <c r="AC6" s="33" t="n"/>
-      <c r="AD6" s="33" t="n"/>
-      <c r="AE6" s="33" t="n"/>
-      <c r="AF6" s="33" t="n"/>
-      <c r="AG6" s="33" t="n"/>
-      <c r="AH6" s="33" t="n"/>
-      <c r="AI6" s="33" t="n"/>
-      <c r="AJ6" s="33" t="n"/>
-      <c r="AK6" s="33" t="n"/>
-      <c r="AL6" s="33" t="n"/>
-      <c r="AM6" s="33" t="n"/>
-      <c r="AN6" s="33" t="n"/>
-      <c r="AO6" s="33" t="n"/>
-      <c r="AP6" s="33" t="n"/>
-      <c r="AQ6" s="33" t="n"/>
-      <c r="AR6" s="33" t="n"/>
-      <c r="AS6" s="33" t="n"/>
-      <c r="AT6" s="33" t="n"/>
-      <c r="AU6" s="33" t="n"/>
-      <c r="AV6" s="33" t="n"/>
-      <c r="AW6" s="33" t="n"/>
-      <c r="AX6" s="33" t="n"/>
-      <c r="AY6" s="33" t="n"/>
-      <c r="AZ6" s="33" t="n"/>
-      <c r="BA6" s="33" t="n"/>
-      <c r="BB6" s="33" t="n"/>
-      <c r="BC6" s="33" t="n"/>
-      <c r="BD6" s="33" t="n"/>
-      <c r="BE6" s="31" t="n"/>
+      <c r="D6" s="42" t="n"/>
+      <c r="E6" s="42" t="n"/>
+      <c r="F6" s="42" t="n"/>
+      <c r="G6" s="42" t="n"/>
+      <c r="H6" s="42" t="n"/>
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="42" t="n"/>
+      <c r="K6" s="42" t="n"/>
+      <c r="L6" s="42" t="n"/>
+      <c r="M6" s="42" t="n"/>
+      <c r="N6" s="42" t="n"/>
+      <c r="O6" s="42" t="n"/>
+      <c r="P6" s="42" t="n"/>
+      <c r="Q6" s="42" t="n"/>
+      <c r="R6" s="42" t="n"/>
+      <c r="S6" s="42" t="n"/>
+      <c r="T6" s="42" t="n"/>
+      <c r="U6" s="42" t="n"/>
+      <c r="V6" s="42" t="n"/>
+      <c r="W6" s="42" t="n"/>
+      <c r="X6" s="42" t="n"/>
+      <c r="Y6" s="42" t="n"/>
+      <c r="Z6" s="42" t="n"/>
+      <c r="AA6" s="42" t="n"/>
+      <c r="AB6" s="42" t="n"/>
+      <c r="AC6" s="42" t="n"/>
+      <c r="AD6" s="42" t="n"/>
+      <c r="AE6" s="42" t="n"/>
+      <c r="AF6" s="42" t="n"/>
+      <c r="AG6" s="42" t="n"/>
+      <c r="AH6" s="42" t="n"/>
+      <c r="AI6" s="42" t="n"/>
+      <c r="AJ6" s="42" t="n"/>
+      <c r="AK6" s="42" t="n"/>
+      <c r="AL6" s="42" t="n"/>
+      <c r="AM6" s="42" t="n"/>
+      <c r="AN6" s="42" t="n"/>
+      <c r="AO6" s="42" t="n"/>
+      <c r="AP6" s="42" t="n"/>
+      <c r="AQ6" s="42" t="n"/>
+      <c r="AR6" s="42" t="n"/>
+      <c r="AS6" s="42" t="n"/>
+      <c r="AT6" s="42" t="n"/>
+      <c r="AU6" s="42" t="n"/>
+      <c r="AV6" s="42" t="n"/>
+      <c r="AW6" s="42" t="n"/>
+      <c r="AX6" s="42" t="n"/>
+      <c r="AY6" s="42" t="n"/>
+      <c r="AZ6" s="42" t="n"/>
+      <c r="BA6" s="42" t="n"/>
+      <c r="BB6" s="42" t="n"/>
+      <c r="BC6" s="42" t="n"/>
+      <c r="BD6" s="42" t="n"/>
+      <c r="BE6" s="39" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="35" t="inlineStr">
+      <c r="A7" s="45" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B7" s="36" t="n"/>
-      <c r="C7" s="41" t="inlineStr">
+      <c r="B7" s="46" t="n"/>
+      <c r="C7" s="38" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
       </c>
-      <c r="D7" s="41" t="inlineStr">
+      <c r="D7" s="38" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
       </c>
-      <c r="E7" s="33" t="n"/>
-      <c r="F7" s="33" t="n"/>
-      <c r="G7" s="33" t="n"/>
-      <c r="H7" s="33" t="n"/>
-      <c r="I7" s="33" t="n"/>
-      <c r="J7" s="33" t="n"/>
-      <c r="K7" s="33" t="n"/>
-      <c r="L7" s="33" t="n"/>
-      <c r="M7" s="33" t="n"/>
-      <c r="N7" s="33" t="n"/>
-      <c r="O7" s="33" t="n"/>
-      <c r="P7" s="33" t="n"/>
-      <c r="Q7" s="33" t="n"/>
-      <c r="R7" s="33" t="n"/>
-      <c r="S7" s="33" t="n"/>
-      <c r="T7" s="33" t="n"/>
-      <c r="U7" s="33" t="n"/>
-      <c r="V7" s="33" t="n"/>
-      <c r="W7" s="33" t="n"/>
-      <c r="X7" s="33" t="n"/>
-      <c r="Y7" s="33" t="n"/>
-      <c r="Z7" s="33" t="n"/>
-      <c r="AA7" s="33" t="n"/>
-      <c r="AB7" s="33" t="n"/>
-      <c r="AC7" s="33" t="n"/>
-      <c r="AD7" s="33" t="n"/>
-      <c r="AE7" s="33" t="n"/>
-      <c r="AF7" s="33" t="n"/>
-      <c r="AG7" s="33" t="n"/>
-      <c r="AH7" s="33" t="n"/>
-      <c r="AI7" s="33" t="n"/>
-      <c r="AJ7" s="33" t="n"/>
-      <c r="AK7" s="33" t="n"/>
-      <c r="AL7" s="33" t="n"/>
-      <c r="AM7" s="33" t="n"/>
-      <c r="AN7" s="33" t="n"/>
-      <c r="AO7" s="33" t="n"/>
-      <c r="AP7" s="33" t="n"/>
-      <c r="AQ7" s="33" t="n"/>
-      <c r="AR7" s="33" t="n"/>
-      <c r="AS7" s="33" t="n"/>
-      <c r="AT7" s="33" t="n"/>
-      <c r="AU7" s="33" t="n"/>
-      <c r="AV7" s="33" t="n"/>
-      <c r="AW7" s="33" t="n"/>
-      <c r="AX7" s="33" t="n"/>
-      <c r="AY7" s="33" t="n"/>
-      <c r="AZ7" s="33" t="n"/>
-      <c r="BA7" s="33" t="n"/>
-      <c r="BB7" s="33" t="n"/>
-      <c r="BC7" s="33" t="n"/>
-      <c r="BD7" s="33" t="n"/>
-      <c r="BE7" s="31" t="n"/>
+      <c r="E7" s="42" t="n"/>
+      <c r="F7" s="42" t="n"/>
+      <c r="G7" s="42" t="n"/>
+      <c r="H7" s="42" t="n"/>
+      <c r="I7" s="42" t="n"/>
+      <c r="J7" s="42" t="n"/>
+      <c r="K7" s="42" t="n"/>
+      <c r="L7" s="42" t="n"/>
+      <c r="M7" s="42" t="n"/>
+      <c r="N7" s="42" t="n"/>
+      <c r="O7" s="42" t="n"/>
+      <c r="P7" s="42" t="n"/>
+      <c r="Q7" s="42" t="n"/>
+      <c r="R7" s="42" t="n"/>
+      <c r="S7" s="42" t="n"/>
+      <c r="T7" s="42" t="n"/>
+      <c r="U7" s="42" t="n"/>
+      <c r="V7" s="42" t="n"/>
+      <c r="W7" s="42" t="n"/>
+      <c r="X7" s="42" t="n"/>
+      <c r="Y7" s="42" t="n"/>
+      <c r="Z7" s="42" t="n"/>
+      <c r="AA7" s="42" t="n"/>
+      <c r="AB7" s="42" t="n"/>
+      <c r="AC7" s="42" t="n"/>
+      <c r="AD7" s="42" t="n"/>
+      <c r="AE7" s="42" t="n"/>
+      <c r="AF7" s="42" t="n"/>
+      <c r="AG7" s="42" t="n"/>
+      <c r="AH7" s="42" t="n"/>
+      <c r="AI7" s="42" t="n"/>
+      <c r="AJ7" s="42" t="n"/>
+      <c r="AK7" s="42" t="n"/>
+      <c r="AL7" s="42" t="n"/>
+      <c r="AM7" s="42" t="n"/>
+      <c r="AN7" s="42" t="n"/>
+      <c r="AO7" s="42" t="n"/>
+      <c r="AP7" s="42" t="n"/>
+      <c r="AQ7" s="42" t="n"/>
+      <c r="AR7" s="42" t="n"/>
+      <c r="AS7" s="42" t="n"/>
+      <c r="AT7" s="42" t="n"/>
+      <c r="AU7" s="42" t="n"/>
+      <c r="AV7" s="42" t="n"/>
+      <c r="AW7" s="42" t="n"/>
+      <c r="AX7" s="42" t="n"/>
+      <c r="AY7" s="42" t="n"/>
+      <c r="AZ7" s="42" t="n"/>
+      <c r="BA7" s="42" t="n"/>
+      <c r="BB7" s="42" t="n"/>
+      <c r="BC7" s="42" t="n"/>
+      <c r="BD7" s="42" t="n"/>
+      <c r="BE7" s="39" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="37" t="n"/>
-      <c r="B8" s="38" t="n"/>
-      <c r="C8" s="42" t="n"/>
-      <c r="D8" s="41" t="inlineStr">
+      <c r="A8" s="47" t="n"/>
+      <c r="B8" s="48" t="n"/>
+      <c r="C8" s="41" t="n"/>
+      <c r="D8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D01T03: Agriculture, forestry and fishing</t>
         </is>
       </c>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="E8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
-      <c r="F8" s="41" t="inlineStr">
+      <c r="F8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
-      <c r="G8" s="33" t="n"/>
-      <c r="H8" s="31" t="n"/>
-      <c r="I8" s="41" t="inlineStr">
+      <c r="G8" s="42" t="n"/>
+      <c r="H8" s="39" t="n"/>
+      <c r="I8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
       </c>
-      <c r="J8" s="41" t="inlineStr">
+      <c r="J8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
       </c>
-      <c r="K8" s="33" t="n"/>
-      <c r="L8" s="33" t="n"/>
-      <c r="M8" s="33" t="n"/>
-      <c r="N8" s="33" t="n"/>
-      <c r="O8" s="33" t="n"/>
-      <c r="P8" s="33" t="n"/>
-      <c r="Q8" s="33" t="n"/>
-      <c r="R8" s="33" t="n"/>
-      <c r="S8" s="33" t="n"/>
-      <c r="T8" s="33" t="n"/>
-      <c r="U8" s="33" t="n"/>
-      <c r="V8" s="33" t="n"/>
-      <c r="W8" s="33" t="n"/>
-      <c r="X8" s="33" t="n"/>
-      <c r="Y8" s="33" t="n"/>
-      <c r="Z8" s="33" t="n"/>
-      <c r="AA8" s="33" t="n"/>
-      <c r="AB8" s="33" t="n"/>
-      <c r="AC8" s="33" t="n"/>
-      <c r="AD8" s="31" t="n"/>
-      <c r="AE8" s="41" t="inlineStr">
+      <c r="K8" s="42" t="n"/>
+      <c r="L8" s="42" t="n"/>
+      <c r="M8" s="42" t="n"/>
+      <c r="N8" s="42" t="n"/>
+      <c r="O8" s="42" t="n"/>
+      <c r="P8" s="42" t="n"/>
+      <c r="Q8" s="42" t="n"/>
+      <c r="R8" s="42" t="n"/>
+      <c r="S8" s="42" t="n"/>
+      <c r="T8" s="42" t="n"/>
+      <c r="U8" s="42" t="n"/>
+      <c r="V8" s="42" t="n"/>
+      <c r="W8" s="42" t="n"/>
+      <c r="X8" s="42" t="n"/>
+      <c r="Y8" s="42" t="n"/>
+      <c r="Z8" s="42" t="n"/>
+      <c r="AA8" s="42" t="n"/>
+      <c r="AB8" s="42" t="n"/>
+      <c r="AC8" s="42" t="n"/>
+      <c r="AD8" s="39" t="n"/>
+      <c r="AE8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
         </is>
       </c>
-      <c r="AF8" s="41" t="inlineStr">
+      <c r="AF8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T43: Construction</t>
         </is>
       </c>
-      <c r="AG8" s="41" t="inlineStr">
+      <c r="AG8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
       </c>
-      <c r="AH8" s="41" t="inlineStr">
+      <c r="AH8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
       </c>
-      <c r="AI8" s="33" t="n"/>
-      <c r="AJ8" s="33" t="n"/>
-      <c r="AK8" s="33" t="n"/>
-      <c r="AL8" s="33" t="n"/>
-      <c r="AM8" s="33" t="n"/>
-      <c r="AN8" s="33" t="n"/>
-      <c r="AO8" s="33" t="n"/>
-      <c r="AP8" s="33" t="n"/>
-      <c r="AQ8" s="33" t="n"/>
-      <c r="AR8" s="31" t="n"/>
-      <c r="AS8" s="41" t="inlineStr">
+      <c r="AI8" s="42" t="n"/>
+      <c r="AJ8" s="42" t="n"/>
+      <c r="AK8" s="42" t="n"/>
+      <c r="AL8" s="42" t="n"/>
+      <c r="AM8" s="42" t="n"/>
+      <c r="AN8" s="42" t="n"/>
+      <c r="AO8" s="42" t="n"/>
+      <c r="AP8" s="42" t="n"/>
+      <c r="AQ8" s="42" t="n"/>
+      <c r="AR8" s="39" t="n"/>
+      <c r="AS8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
       </c>
-      <c r="AT8" s="41" t="inlineStr">
+      <c r="AT8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
       </c>
-      <c r="AU8" s="33" t="n"/>
-      <c r="AV8" s="33" t="n"/>
-      <c r="AW8" s="33" t="n"/>
-      <c r="AX8" s="33" t="n"/>
-      <c r="AY8" s="33" t="n"/>
-      <c r="AZ8" s="31" t="n"/>
-      <c r="BA8" s="41" t="inlineStr">
+      <c r="AU8" s="42" t="n"/>
+      <c r="AV8" s="42" t="n"/>
+      <c r="AW8" s="42" t="n"/>
+      <c r="AX8" s="42" t="n"/>
+      <c r="AY8" s="42" t="n"/>
+      <c r="AZ8" s="39" t="n"/>
+      <c r="BA8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T39: Industry (mining, manufactures and utilities)</t>
         </is>
       </c>
-      <c r="BB8" s="41" t="inlineStr">
+      <c r="BB8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T98: Total services</t>
         </is>
       </c>
-      <c r="BC8" s="41" t="inlineStr">
+      <c r="BC8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D58T82: Information, finance, real estate and other business services</t>
         </is>
       </c>
-      <c r="BD8" s="41" t="inlineStr">
+      <c r="BD8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T98: Total services (incl. construction)</t>
         </is>
       </c>
-      <c r="BE8" s="41" t="inlineStr">
+      <c r="BE8" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">  DINFO: Information industries</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="37" t="n"/>
-      <c r="B9" s="38" t="n"/>
-      <c r="C9" s="42" t="n"/>
-      <c r="D9" s="42" t="n"/>
-      <c r="E9" s="42" t="n"/>
-      <c r="F9" s="41" t="inlineStr">
+      <c r="A9" s="47" t="n"/>
+      <c r="B9" s="48" t="n"/>
+      <c r="C9" s="41" t="n"/>
+      <c r="D9" s="41" t="n"/>
+      <c r="E9" s="41" t="n"/>
+      <c r="F9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D05T06: Mining and extraction of energy producing products</t>
         </is>
       </c>
-      <c r="G9" s="41" t="inlineStr">
+      <c r="G9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D07T08: Mining and quarrying of non-energy producing products</t>
         </is>
       </c>
-      <c r="H9" s="41" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D09: Mining support service activities</t>
         </is>
       </c>
-      <c r="I9" s="42" t="n"/>
-      <c r="J9" s="41" t="inlineStr">
+      <c r="I9" s="41" t="n"/>
+      <c r="J9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D10T12: Food products, beverages and tobacco</t>
         </is>
       </c>
-      <c r="K9" s="41" t="inlineStr">
+      <c r="K9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D13T15: Textiles, wearing apparel, leather and related products</t>
         </is>
       </c>
-      <c r="L9" s="41" t="inlineStr">
+      <c r="L9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="M9" s="41" t="inlineStr">
+      <c r="M9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="N9" s="31" t="n"/>
-      <c r="O9" s="41" t="inlineStr">
+      <c r="N9" s="39" t="n"/>
+      <c r="O9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
-      <c r="P9" s="41" t="inlineStr">
+      <c r="P9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
-      <c r="Q9" s="33" t="n"/>
-      <c r="R9" s="33" t="n"/>
-      <c r="S9" s="31" t="n"/>
-      <c r="T9" s="41" t="inlineStr">
+      <c r="Q9" s="42" t="n"/>
+      <c r="R9" s="42" t="n"/>
+      <c r="S9" s="39" t="n"/>
+      <c r="T9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="U9" s="41" t="inlineStr">
+      <c r="U9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="V9" s="31" t="n"/>
-      <c r="W9" s="41" t="inlineStr">
+      <c r="V9" s="39" t="n"/>
+      <c r="W9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="X9" s="41" t="inlineStr">
+      <c r="X9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="Y9" s="31" t="n"/>
-      <c r="Z9" s="41" t="inlineStr">
+      <c r="Y9" s="39" t="n"/>
+      <c r="Z9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D28: Machinery and equipment, nec</t>
         </is>
       </c>
-      <c r="AA9" s="41" t="inlineStr">
+      <c r="AA9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AB9" s="41" t="inlineStr">
+      <c r="AB9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AC9" s="31" t="n"/>
-      <c r="AD9" s="41" t="inlineStr">
+      <c r="AC9" s="39" t="n"/>
+      <c r="AD9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
         </is>
       </c>
-      <c r="AE9" s="42" t="n"/>
-      <c r="AF9" s="42" t="n"/>
-      <c r="AG9" s="42" t="n"/>
-      <c r="AH9" s="41" t="inlineStr">
+      <c r="AE9" s="41" t="n"/>
+      <c r="AF9" s="41" t="n"/>
+      <c r="AG9" s="41" t="n"/>
+      <c r="AH9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
-      <c r="AI9" s="41" t="inlineStr">
+      <c r="AI9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
-      <c r="AJ9" s="33" t="n"/>
-      <c r="AK9" s="31" t="n"/>
-      <c r="AL9" s="41" t="inlineStr">
+      <c r="AJ9" s="42" t="n"/>
+      <c r="AK9" s="39" t="n"/>
+      <c r="AL9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
-      <c r="AM9" s="41" t="inlineStr">
+      <c r="AM9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
-      <c r="AN9" s="33" t="n"/>
-      <c r="AO9" s="31" t="n"/>
-      <c r="AP9" s="41" t="inlineStr">
+      <c r="AN9" s="42" t="n"/>
+      <c r="AO9" s="39" t="n"/>
+      <c r="AP9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D64T66: Financial and insurance activities</t>
         </is>
       </c>
-      <c r="AQ9" s="41" t="inlineStr">
+      <c r="AQ9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D68: Real estate activities</t>
         </is>
       </c>
-      <c r="AR9" s="41" t="inlineStr">
+      <c r="AR9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D69T82: Other business sector services</t>
         </is>
       </c>
-      <c r="AS9" s="42" t="n"/>
-      <c r="AT9" s="41" t="inlineStr">
+      <c r="AS9" s="41" t="n"/>
+      <c r="AT9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
-      <c r="AU9" s="41" t="inlineStr">
+      <c r="AU9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
-      <c r="AV9" s="33" t="n"/>
-      <c r="AW9" s="31" t="n"/>
-      <c r="AX9" s="41" t="inlineStr">
+      <c r="AV9" s="42" t="n"/>
+      <c r="AW9" s="39" t="n"/>
+      <c r="AX9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AY9" s="41" t="inlineStr">
+      <c r="AY9" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AZ9" s="31" t="n"/>
-      <c r="BA9" s="42" t="n"/>
-      <c r="BB9" s="42" t="n"/>
-      <c r="BC9" s="42" t="n"/>
-      <c r="BD9" s="42" t="n"/>
-      <c r="BE9" s="42" t="n"/>
+      <c r="AZ9" s="39" t="n"/>
+      <c r="BA9" s="41" t="n"/>
+      <c r="BB9" s="41" t="n"/>
+      <c r="BC9" s="41" t="n"/>
+      <c r="BD9" s="41" t="n"/>
+      <c r="BE9" s="41" t="n"/>
     </row>
     <row r="10" ht="94.5" customHeight="1">
-      <c r="A10" s="39" t="n"/>
-      <c r="B10" s="40" t="n"/>
-      <c r="C10" s="43" t="n"/>
-      <c r="D10" s="43" t="n"/>
-      <c r="E10" s="43" t="n"/>
-      <c r="F10" s="43" t="n"/>
-      <c r="G10" s="43" t="n"/>
-      <c r="H10" s="43" t="n"/>
-      <c r="I10" s="43" t="n"/>
-      <c r="J10" s="43" t="n"/>
-      <c r="K10" s="43" t="n"/>
-      <c r="L10" s="43" t="n"/>
-      <c r="M10" s="41" t="inlineStr">
+      <c r="A10" s="49" t="n"/>
+      <c r="B10" s="50" t="n"/>
+      <c r="C10" s="40" t="n"/>
+      <c r="D10" s="40" t="n"/>
+      <c r="E10" s="40" t="n"/>
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="40" t="n"/>
+      <c r="H10" s="40" t="n"/>
+      <c r="I10" s="40" t="n"/>
+      <c r="J10" s="40" t="n"/>
+      <c r="K10" s="40" t="n"/>
+      <c r="L10" s="40" t="n"/>
+      <c r="M10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D16: Wood and products of wood and cork</t>
         </is>
       </c>
-      <c r="N10" s="41" t="inlineStr">
+      <c r="N10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D17T18: Paper products and printing</t>
         </is>
       </c>
-      <c r="O10" s="43" t="n"/>
-      <c r="P10" s="41" t="inlineStr">
+      <c r="O10" s="40" t="n"/>
+      <c r="P10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D19: Coke and refined petroleum products</t>
         </is>
       </c>
-      <c r="Q10" s="41" t="inlineStr">
+      <c r="Q10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D20T21: Chemicals and pharmaceutical products</t>
         </is>
       </c>
-      <c r="R10" s="41" t="inlineStr">
+      <c r="R10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D22: Rubber and plastic products</t>
         </is>
       </c>
-      <c r="S10" s="41" t="inlineStr">
+      <c r="S10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D23: Other non-metallic mineral products</t>
         </is>
       </c>
-      <c r="T10" s="43" t="n"/>
-      <c r="U10" s="41" t="inlineStr">
+      <c r="T10" s="40" t="n"/>
+      <c r="U10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D24: Basic metals</t>
         </is>
       </c>
-      <c r="V10" s="41" t="inlineStr">
+      <c r="V10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D25: Fabricated metal products</t>
         </is>
       </c>
-      <c r="W10" s="43" t="n"/>
-      <c r="X10" s="41" t="inlineStr">
+      <c r="W10" s="40" t="n"/>
+      <c r="X10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D26: Computer, electronic and optical products</t>
         </is>
       </c>
-      <c r="Y10" s="41" t="inlineStr">
+      <c r="Y10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D27: Electrical equipment</t>
         </is>
       </c>
-      <c r="Z10" s="43" t="n"/>
-      <c r="AA10" s="43" t="n"/>
-      <c r="AB10" s="41" t="inlineStr">
+      <c r="Z10" s="40" t="n"/>
+      <c r="AA10" s="40" t="n"/>
+      <c r="AB10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D29: Motor vehicles, trailers and semi-trailers</t>
         </is>
       </c>
-      <c r="AC10" s="41" t="inlineStr">
+      <c r="AC10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D30: Other transport equipment</t>
         </is>
       </c>
-      <c r="AD10" s="43" t="n"/>
-      <c r="AE10" s="43" t="n"/>
-      <c r="AF10" s="43" t="n"/>
-      <c r="AG10" s="43" t="n"/>
-      <c r="AH10" s="43" t="n"/>
-      <c r="AI10" s="41" t="inlineStr">
+      <c r="AD10" s="40" t="n"/>
+      <c r="AE10" s="40" t="n"/>
+      <c r="AF10" s="40" t="n"/>
+      <c r="AG10" s="40" t="n"/>
+      <c r="AH10" s="40" t="n"/>
+      <c r="AI10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D45T47: Wholesale and retail trade; repair of motor vehicles</t>
         </is>
       </c>
-      <c r="AJ10" s="41" t="inlineStr">
+      <c r="AJ10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D49T53: Transportation and storage</t>
         </is>
       </c>
-      <c r="AK10" s="41" t="inlineStr">
+      <c r="AK10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D55T56: Accommodation and food services</t>
         </is>
       </c>
-      <c r="AL10" s="43" t="n"/>
-      <c r="AM10" s="41" t="inlineStr">
+      <c r="AL10" s="40" t="n"/>
+      <c r="AM10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D58T60: Publishing, audiovisual and broadcasting activities</t>
         </is>
       </c>
-      <c r="AN10" s="41" t="inlineStr">
+      <c r="AN10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D61: Telecommunications</t>
         </is>
       </c>
-      <c r="AO10" s="41" t="inlineStr">
+      <c r="AO10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D62T63: IT and other information services</t>
         </is>
       </c>
-      <c r="AP10" s="43" t="n"/>
-      <c r="AQ10" s="43" t="n"/>
-      <c r="AR10" s="43" t="n"/>
-      <c r="AS10" s="43" t="n"/>
-      <c r="AT10" s="43" t="n"/>
-      <c r="AU10" s="41" t="inlineStr">
+      <c r="AP10" s="40" t="n"/>
+      <c r="AQ10" s="40" t="n"/>
+      <c r="AR10" s="40" t="n"/>
+      <c r="AS10" s="40" t="n"/>
+      <c r="AT10" s="40" t="n"/>
+      <c r="AU10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D84: Public admin. and defence; compulsory social security</t>
         </is>
       </c>
-      <c r="AV10" s="41" t="inlineStr">
+      <c r="AV10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D85: Education</t>
         </is>
       </c>
-      <c r="AW10" s="41" t="inlineStr">
+      <c r="AW10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D86T88: Human health and social work</t>
         </is>
       </c>
-      <c r="AX10" s="43" t="n"/>
-      <c r="AY10" s="41" t="inlineStr">
+      <c r="AX10" s="40" t="n"/>
+      <c r="AY10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D90T96: Arts, entertainment, recreation and other service activities</t>
         </is>
       </c>
-      <c r="AZ10" s="41" t="inlineStr">
+      <c r="AZ10" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">      D97T98: Private households with employed persons</t>
         </is>
       </c>
-      <c r="BA10" s="43" t="n"/>
-      <c r="BB10" s="43" t="n"/>
-      <c r="BC10" s="43" t="n"/>
-      <c r="BD10" s="43" t="n"/>
-      <c r="BE10" s="43" t="n"/>
+      <c r="BA10" s="40" t="n"/>
+      <c r="BB10" s="40" t="n"/>
+      <c r="BC10" s="40" t="n"/>
+      <c r="BD10" s="40" t="n"/>
+      <c r="BE10" s="40" t="n"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="8" t="inlineStr">
@@ -12866,11 +12870,40 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:BE6"/>
+    <mergeCell ref="A7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:BE7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:AD8"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AH8:AR8"/>
+    <mergeCell ref="AS8:AS10"/>
+    <mergeCell ref="AT8:AZ8"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="BB8:BB10"/>
     <mergeCell ref="BC8:BC10"/>
     <mergeCell ref="BD8:BD10"/>
@@ -12887,40 +12920,11 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:BE6"/>
-    <mergeCell ref="A7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:BE7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:AD8"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AH8:AR8"/>
-    <mergeCell ref="AS8:AS10"/>
-    <mergeCell ref="AT8:AZ8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BE3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AD10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=TIM_2019_MAIN&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId1"/>
@@ -22486,80 +22490,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="44" t="inlineStr">
+      <c r="A3" s="52" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="47" t="inlineStr">
+      <c r="B3" s="39" t="n"/>
+      <c r="C3" s="55" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="31" t="n"/>
+      <c r="D3" s="42" t="n"/>
+      <c r="E3" s="42" t="n"/>
+      <c r="F3" s="42" t="n"/>
+      <c r="G3" s="42" t="n"/>
+      <c r="H3" s="42" t="n"/>
+      <c r="I3" s="42" t="n"/>
+      <c r="J3" s="42" t="n"/>
+      <c r="K3" s="42" t="n"/>
+      <c r="L3" s="42" t="n"/>
+      <c r="M3" s="42" t="n"/>
+      <c r="N3" s="39" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="53" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="46" t="inlineStr">
+      <c r="B4" s="39" t="n"/>
+      <c r="C4" s="54" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="46" t="inlineStr">
+      <c r="D4" s="39" t="n"/>
+      <c r="E4" s="54" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="46" t="inlineStr">
+      <c r="F4" s="39" t="n"/>
+      <c r="G4" s="54" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="31" t="n"/>
-      <c r="I4" s="46" t="inlineStr">
+      <c r="H4" s="39" t="n"/>
+      <c r="I4" s="54" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="31" t="n"/>
-      <c r="K4" s="46" t="inlineStr">
+      <c r="J4" s="39" t="n"/>
+      <c r="K4" s="54" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="46" t="inlineStr">
+      <c r="L4" s="39" t="n"/>
+      <c r="M4" s="54" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="31" t="n"/>
+      <c r="N4" s="39" t="n"/>
     </row>
     <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="45" t="inlineStr">
+      <c r="A5" s="53" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="39" t="n"/>
       <c r="C5" s="18" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -23885,17 +23889,17 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="48" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="53" t="inlineStr">
+      <c r="D1" s="35" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
       </c>
-      <c r="E1" s="49" t="inlineStr">
+      <c r="E1" s="31" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
         </is>
@@ -23930,12 +23934,12 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="48" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="49" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
@@ -23945,22 +23949,22 @@
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="48" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="49" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="48" t="inlineStr">
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="49" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
@@ -24000,17 +24004,17 @@
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="48" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="53" t="inlineStr">
+      <c r="AA1" s="35" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="49" t="inlineStr">
+      <c r="AB1" s="31" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
@@ -24099,13 +24103,13 @@
       <c r="B2" t="n">
         <v>17357</v>
       </c>
-      <c r="C2" s="50" t="n">
+      <c r="C2" s="32" t="n">
         <v>8891</v>
       </c>
-      <c r="D2" s="51" t="n">
+      <c r="D2" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="52" t="n">
+      <c r="E2" s="34" t="n">
         <v>5169</v>
       </c>
       <c r="F2" t="n">
@@ -24126,25 +24130,25 @@
       <c r="K2" t="n">
         <v>1796</v>
       </c>
-      <c r="L2" s="50" t="n">
+      <c r="L2" s="32" t="n">
         <v>22168.58529140342</v>
       </c>
-      <c r="M2" s="54" t="n">
+      <c r="M2" s="36" t="n">
         <v>9558.414708596578</v>
       </c>
       <c r="N2" t="n">
         <v>43901</v>
       </c>
-      <c r="O2" s="50" t="n">
+      <c r="O2" s="32" t="n">
         <v>6776.002000750282</v>
       </c>
-      <c r="P2" s="54" t="n">
+      <c r="P2" s="36" t="n">
         <v>5135.997999249718</v>
       </c>
-      <c r="Q2" s="50" t="n">
+      <c r="Q2" s="32" t="n">
         <v>6808.831663596747</v>
       </c>
-      <c r="R2" s="54" t="n">
+      <c r="R2" s="36" t="n">
         <v>16319.16833640325</v>
       </c>
       <c r="S2" t="n">
@@ -24168,13 +24172,13 @@
       <c r="Y2" t="n">
         <v>31925</v>
       </c>
-      <c r="Z2" s="50" t="n">
+      <c r="Z2" s="32" t="n">
         <v>18289.43950714379</v>
       </c>
-      <c r="AA2" s="55" t="n">
+      <c r="AA2" s="37" t="n">
         <v>2152.825140909687</v>
       </c>
-      <c r="AB2" s="54" t="n">
+      <c r="AB2" s="36" t="n">
         <v>426.7353519465198</v>
       </c>
       <c r="AC2" t="n">

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="2" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -457,16 +457,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -478,9 +477,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -493,7 +494,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1085,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1096,7 +1096,7 @@
           <t>BEbIC BAU Employment by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="56" t="n">
+      <c r="C1" s="38" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1256,18 +1256,18 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="54" max="54"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
-    <col width="9.1640625" customWidth="1" style="6" min="58" max="61"/>
-    <col width="9.1640625" customWidth="1" style="6" min="62" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
+    <col width="9.1796875" customWidth="1" style="6" min="58" max="61"/>
+    <col width="9.1796875" customWidth="1" style="6" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1289,13 +1289,13 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>Indicator</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="51" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="41" t="inlineStr">
         <is>
           <t>EMPN: Employment</t>
         </is>
@@ -1353,16 +1353,16 @@
       <c r="BB3" s="42" t="n"/>
       <c r="BC3" s="42" t="n"/>
       <c r="BD3" s="42" t="n"/>
-      <c r="BE3" s="39" t="n"/>
+      <c r="BE3" s="40" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="43" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Partner</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="44" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="43" t="inlineStr">
         <is>
           <t>WLD: World</t>
         </is>
@@ -1420,16 +1420,16 @@
       <c r="BB4" s="42" t="n"/>
       <c r="BC4" s="42" t="n"/>
       <c r="BD4" s="42" t="n"/>
-      <c r="BE4" s="39" t="n"/>
+      <c r="BE4" s="40" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="43" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
-      <c r="C5" s="44" t="inlineStr">
+      <c r="B5" s="40" t="n"/>
+      <c r="C5" s="43" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -1487,16 +1487,16 @@
       <c r="BB5" s="42" t="n"/>
       <c r="BC5" s="42" t="n"/>
       <c r="BD5" s="42" t="n"/>
-      <c r="BE5" s="39" t="n"/>
+      <c r="BE5" s="40" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="43" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="39" t="n"/>
-      <c r="C6" s="44" t="inlineStr">
+      <c r="B6" s="40" t="n"/>
+      <c r="C6" s="43" t="inlineStr">
         <is>
           <t>Persons, Thousands</t>
         </is>
@@ -1554,21 +1554,21 @@
       <c r="BB6" s="42" t="n"/>
       <c r="BC6" s="42" t="n"/>
       <c r="BD6" s="42" t="n"/>
-      <c r="BE6" s="39" t="n"/>
+      <c r="BE6" s="40" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="45" t="inlineStr">
+      <c r="A7" s="44" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B7" s="46" t="n"/>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="B7" s="45" t="n"/>
+      <c r="C7" s="50" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="50" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
@@ -1625,35 +1625,35 @@
       <c r="BB7" s="42" t="n"/>
       <c r="BC7" s="42" t="n"/>
       <c r="BD7" s="42" t="n"/>
-      <c r="BE7" s="39" t="n"/>
+      <c r="BE7" s="40" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="47" t="n"/>
-      <c r="B8" s="48" t="n"/>
-      <c r="C8" s="41" t="n"/>
-      <c r="D8" s="38" t="inlineStr">
+      <c r="A8" s="46" t="n"/>
+      <c r="B8" s="47" t="n"/>
+      <c r="C8" s="51" t="n"/>
+      <c r="D8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D01T03: Agriculture, forestry and fishing</t>
         </is>
       </c>
-      <c r="E8" s="38" t="inlineStr">
+      <c r="E8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
-      <c r="F8" s="38" t="inlineStr">
+      <c r="F8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
       <c r="G8" s="42" t="n"/>
-      <c r="H8" s="39" t="n"/>
-      <c r="I8" s="38" t="inlineStr">
+      <c r="H8" s="40" t="n"/>
+      <c r="I8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
       </c>
-      <c r="J8" s="38" t="inlineStr">
+      <c r="J8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
@@ -1677,23 +1677,23 @@
       <c r="AA8" s="42" t="n"/>
       <c r="AB8" s="42" t="n"/>
       <c r="AC8" s="42" t="n"/>
-      <c r="AD8" s="39" t="n"/>
-      <c r="AE8" s="38" t="inlineStr">
+      <c r="AD8" s="40" t="n"/>
+      <c r="AE8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
         </is>
       </c>
-      <c r="AF8" s="38" t="inlineStr">
+      <c r="AF8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T43: Construction</t>
         </is>
       </c>
-      <c r="AG8" s="38" t="inlineStr">
+      <c r="AG8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
       </c>
-      <c r="AH8" s="38" t="inlineStr">
+      <c r="AH8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
@@ -1707,13 +1707,13 @@
       <c r="AO8" s="42" t="n"/>
       <c r="AP8" s="42" t="n"/>
       <c r="AQ8" s="42" t="n"/>
-      <c r="AR8" s="39" t="n"/>
-      <c r="AS8" s="38" t="inlineStr">
+      <c r="AR8" s="40" t="n"/>
+      <c r="AS8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
       </c>
-      <c r="AT8" s="38" t="inlineStr">
+      <c r="AT8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
@@ -1723,354 +1723,354 @@
       <c r="AW8" s="42" t="n"/>
       <c r="AX8" s="42" t="n"/>
       <c r="AY8" s="42" t="n"/>
-      <c r="AZ8" s="39" t="n"/>
-      <c r="BA8" s="38" t="inlineStr">
+      <c r="AZ8" s="40" t="n"/>
+      <c r="BA8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T39: Industry (mining, manufactures and utilities)</t>
         </is>
       </c>
-      <c r="BB8" s="38" t="inlineStr">
+      <c r="BB8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T98: Total services</t>
         </is>
       </c>
-      <c r="BC8" s="38" t="inlineStr">
+      <c r="BC8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D58T82: Information, finance, real estate and other business services</t>
         </is>
       </c>
-      <c r="BD8" s="38" t="inlineStr">
+      <c r="BD8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T98: Total services (incl. construction)</t>
         </is>
       </c>
-      <c r="BE8" s="38" t="inlineStr">
+      <c r="BE8" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">  DINFO: Information industries</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="47" t="n"/>
-      <c r="B9" s="48" t="n"/>
-      <c r="C9" s="41" t="n"/>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="41" t="n"/>
-      <c r="F9" s="38" t="inlineStr">
+      <c r="A9" s="46" t="n"/>
+      <c r="B9" s="47" t="n"/>
+      <c r="C9" s="51" t="n"/>
+      <c r="D9" s="51" t="n"/>
+      <c r="E9" s="51" t="n"/>
+      <c r="F9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D05T06: Mining and extraction of energy producing products</t>
         </is>
       </c>
-      <c r="G9" s="38" t="inlineStr">
+      <c r="G9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D07T08: Mining and quarrying of non-energy producing products</t>
         </is>
       </c>
-      <c r="H9" s="38" t="inlineStr">
+      <c r="H9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D09: Mining support service activities</t>
         </is>
       </c>
-      <c r="I9" s="41" t="n"/>
-      <c r="J9" s="38" t="inlineStr">
+      <c r="I9" s="51" t="n"/>
+      <c r="J9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D10T12: Food products, beverages and tobacco</t>
         </is>
       </c>
-      <c r="K9" s="38" t="inlineStr">
+      <c r="K9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D13T15: Textiles, wearing apparel, leather and related products</t>
         </is>
       </c>
-      <c r="L9" s="38" t="inlineStr">
+      <c r="L9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="M9" s="38" t="inlineStr">
+      <c r="M9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="N9" s="39" t="n"/>
-      <c r="O9" s="38" t="inlineStr">
+      <c r="N9" s="40" t="n"/>
+      <c r="O9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
-      <c r="P9" s="38" t="inlineStr">
+      <c r="P9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
       <c r="Q9" s="42" t="n"/>
       <c r="R9" s="42" t="n"/>
-      <c r="S9" s="39" t="n"/>
-      <c r="T9" s="38" t="inlineStr">
+      <c r="S9" s="40" t="n"/>
+      <c r="T9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="U9" s="38" t="inlineStr">
+      <c r="U9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="V9" s="39" t="n"/>
-      <c r="W9" s="38" t="inlineStr">
+      <c r="V9" s="40" t="n"/>
+      <c r="W9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="X9" s="38" t="inlineStr">
+      <c r="X9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="Y9" s="39" t="n"/>
-      <c r="Z9" s="38" t="inlineStr">
+      <c r="Y9" s="40" t="n"/>
+      <c r="Z9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D28: Machinery and equipment, nec</t>
         </is>
       </c>
-      <c r="AA9" s="38" t="inlineStr">
+      <c r="AA9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AB9" s="38" t="inlineStr">
+      <c r="AB9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AC9" s="39" t="n"/>
-      <c r="AD9" s="38" t="inlineStr">
+      <c r="AC9" s="40" t="n"/>
+      <c r="AD9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
         </is>
       </c>
-      <c r="AE9" s="41" t="n"/>
-      <c r="AF9" s="41" t="n"/>
-      <c r="AG9" s="41" t="n"/>
-      <c r="AH9" s="38" t="inlineStr">
+      <c r="AE9" s="51" t="n"/>
+      <c r="AF9" s="51" t="n"/>
+      <c r="AG9" s="51" t="n"/>
+      <c r="AH9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
-      <c r="AI9" s="38" t="inlineStr">
+      <c r="AI9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
       <c r="AJ9" s="42" t="n"/>
-      <c r="AK9" s="39" t="n"/>
-      <c r="AL9" s="38" t="inlineStr">
+      <c r="AK9" s="40" t="n"/>
+      <c r="AL9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
-      <c r="AM9" s="38" t="inlineStr">
+      <c r="AM9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
       <c r="AN9" s="42" t="n"/>
-      <c r="AO9" s="39" t="n"/>
-      <c r="AP9" s="38" t="inlineStr">
+      <c r="AO9" s="40" t="n"/>
+      <c r="AP9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D64T66: Financial and insurance activities</t>
         </is>
       </c>
-      <c r="AQ9" s="38" t="inlineStr">
+      <c r="AQ9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D68: Real estate activities</t>
         </is>
       </c>
-      <c r="AR9" s="38" t="inlineStr">
+      <c r="AR9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D69T82: Other business sector services</t>
         </is>
       </c>
-      <c r="AS9" s="41" t="n"/>
-      <c r="AT9" s="38" t="inlineStr">
+      <c r="AS9" s="51" t="n"/>
+      <c r="AT9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
-      <c r="AU9" s="38" t="inlineStr">
+      <c r="AU9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
       <c r="AV9" s="42" t="n"/>
-      <c r="AW9" s="39" t="n"/>
-      <c r="AX9" s="38" t="inlineStr">
+      <c r="AW9" s="40" t="n"/>
+      <c r="AX9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AY9" s="38" t="inlineStr">
+      <c r="AY9" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AZ9" s="39" t="n"/>
-      <c r="BA9" s="41" t="n"/>
-      <c r="BB9" s="41" t="n"/>
-      <c r="BC9" s="41" t="n"/>
-      <c r="BD9" s="41" t="n"/>
-      <c r="BE9" s="41" t="n"/>
+      <c r="AZ9" s="40" t="n"/>
+      <c r="BA9" s="51" t="n"/>
+      <c r="BB9" s="51" t="n"/>
+      <c r="BC9" s="51" t="n"/>
+      <c r="BD9" s="51" t="n"/>
+      <c r="BE9" s="51" t="n"/>
     </row>
     <row r="10" ht="94.5" customHeight="1">
-      <c r="A10" s="49" t="n"/>
-      <c r="B10" s="50" t="n"/>
-      <c r="C10" s="40" t="n"/>
-      <c r="D10" s="40" t="n"/>
-      <c r="E10" s="40" t="n"/>
-      <c r="F10" s="40" t="n"/>
-      <c r="G10" s="40" t="n"/>
-      <c r="H10" s="40" t="n"/>
-      <c r="I10" s="40" t="n"/>
-      <c r="J10" s="40" t="n"/>
-      <c r="K10" s="40" t="n"/>
-      <c r="L10" s="40" t="n"/>
-      <c r="M10" s="38" t="inlineStr">
+      <c r="A10" s="48" t="n"/>
+      <c r="B10" s="49" t="n"/>
+      <c r="C10" s="52" t="n"/>
+      <c r="D10" s="52" t="n"/>
+      <c r="E10" s="52" t="n"/>
+      <c r="F10" s="52" t="n"/>
+      <c r="G10" s="52" t="n"/>
+      <c r="H10" s="52" t="n"/>
+      <c r="I10" s="52" t="n"/>
+      <c r="J10" s="52" t="n"/>
+      <c r="K10" s="52" t="n"/>
+      <c r="L10" s="52" t="n"/>
+      <c r="M10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D16: Wood and products of wood and cork</t>
         </is>
       </c>
-      <c r="N10" s="38" t="inlineStr">
+      <c r="N10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D17T18: Paper products and printing</t>
         </is>
       </c>
-      <c r="O10" s="40" t="n"/>
-      <c r="P10" s="38" t="inlineStr">
+      <c r="O10" s="52" t="n"/>
+      <c r="P10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D19: Coke and refined petroleum products</t>
         </is>
       </c>
-      <c r="Q10" s="38" t="inlineStr">
+      <c r="Q10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D20T21: Chemicals and pharmaceutical products</t>
         </is>
       </c>
-      <c r="R10" s="38" t="inlineStr">
+      <c r="R10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D22: Rubber and plastic products</t>
         </is>
       </c>
-      <c r="S10" s="38" t="inlineStr">
+      <c r="S10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D23: Other non-metallic mineral products</t>
         </is>
       </c>
-      <c r="T10" s="40" t="n"/>
-      <c r="U10" s="38" t="inlineStr">
+      <c r="T10" s="52" t="n"/>
+      <c r="U10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D24: Basic metals</t>
         </is>
       </c>
-      <c r="V10" s="38" t="inlineStr">
+      <c r="V10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D25: Fabricated metal products</t>
         </is>
       </c>
-      <c r="W10" s="40" t="n"/>
-      <c r="X10" s="38" t="inlineStr">
+      <c r="W10" s="52" t="n"/>
+      <c r="X10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D26: Computer, electronic and optical products</t>
         </is>
       </c>
-      <c r="Y10" s="38" t="inlineStr">
+      <c r="Y10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D27: Electrical equipment</t>
         </is>
       </c>
-      <c r="Z10" s="40" t="n"/>
-      <c r="AA10" s="40" t="n"/>
-      <c r="AB10" s="38" t="inlineStr">
+      <c r="Z10" s="52" t="n"/>
+      <c r="AA10" s="52" t="n"/>
+      <c r="AB10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D29: Motor vehicles, trailers and semi-trailers</t>
         </is>
       </c>
-      <c r="AC10" s="38" t="inlineStr">
+      <c r="AC10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D30: Other transport equipment</t>
         </is>
       </c>
-      <c r="AD10" s="40" t="n"/>
-      <c r="AE10" s="40" t="n"/>
-      <c r="AF10" s="40" t="n"/>
-      <c r="AG10" s="40" t="n"/>
-      <c r="AH10" s="40" t="n"/>
-      <c r="AI10" s="38" t="inlineStr">
+      <c r="AD10" s="52" t="n"/>
+      <c r="AE10" s="52" t="n"/>
+      <c r="AF10" s="52" t="n"/>
+      <c r="AG10" s="52" t="n"/>
+      <c r="AH10" s="52" t="n"/>
+      <c r="AI10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D45T47: Wholesale and retail trade; repair of motor vehicles</t>
         </is>
       </c>
-      <c r="AJ10" s="38" t="inlineStr">
+      <c r="AJ10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D49T53: Transportation and storage</t>
         </is>
       </c>
-      <c r="AK10" s="38" t="inlineStr">
+      <c r="AK10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D55T56: Accommodation and food services</t>
         </is>
       </c>
-      <c r="AL10" s="40" t="n"/>
-      <c r="AM10" s="38" t="inlineStr">
+      <c r="AL10" s="52" t="n"/>
+      <c r="AM10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D58T60: Publishing, audiovisual and broadcasting activities</t>
         </is>
       </c>
-      <c r="AN10" s="38" t="inlineStr">
+      <c r="AN10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D61: Telecommunications</t>
         </is>
       </c>
-      <c r="AO10" s="38" t="inlineStr">
+      <c r="AO10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D62T63: IT and other information services</t>
         </is>
       </c>
-      <c r="AP10" s="40" t="n"/>
-      <c r="AQ10" s="40" t="n"/>
-      <c r="AR10" s="40" t="n"/>
-      <c r="AS10" s="40" t="n"/>
-      <c r="AT10" s="40" t="n"/>
-      <c r="AU10" s="38" t="inlineStr">
+      <c r="AP10" s="52" t="n"/>
+      <c r="AQ10" s="52" t="n"/>
+      <c r="AR10" s="52" t="n"/>
+      <c r="AS10" s="52" t="n"/>
+      <c r="AT10" s="52" t="n"/>
+      <c r="AU10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D84: Public admin. and defence; compulsory social security</t>
         </is>
       </c>
-      <c r="AV10" s="38" t="inlineStr">
+      <c r="AV10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D85: Education</t>
         </is>
       </c>
-      <c r="AW10" s="38" t="inlineStr">
+      <c r="AW10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D86T88: Human health and social work</t>
         </is>
       </c>
-      <c r="AX10" s="40" t="n"/>
-      <c r="AY10" s="38" t="inlineStr">
+      <c r="AX10" s="52" t="n"/>
+      <c r="AY10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D90T96: Arts, entertainment, recreation and other service activities</t>
         </is>
       </c>
-      <c r="AZ10" s="38" t="inlineStr">
+      <c r="AZ10" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">      D97T98: Private households with employed persons</t>
         </is>
       </c>
-      <c r="BA10" s="40" t="n"/>
-      <c r="BB10" s="40" t="n"/>
-      <c r="BC10" s="40" t="n"/>
-      <c r="BD10" s="40" t="n"/>
-      <c r="BE10" s="40" t="n"/>
+      <c r="BA10" s="52" t="n"/>
+      <c r="BB10" s="52" t="n"/>
+      <c r="BC10" s="52" t="n"/>
+      <c r="BD10" s="52" t="n"/>
+      <c r="BE10" s="52" t="n"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="8" t="inlineStr">
@@ -12870,12 +12870,39 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:BE3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:BE5"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="BB8:BB10"/>
+    <mergeCell ref="BC8:BC10"/>
+    <mergeCell ref="BD8:BD10"/>
+    <mergeCell ref="BE8:BE10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AO9"/>
+    <mergeCell ref="BA8:BA10"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AU9:AW9"/>
+    <mergeCell ref="AX9:AX10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:BE6"/>
     <mergeCell ref="A7:B10"/>
@@ -12892,39 +12919,12 @@
     <mergeCell ref="AH8:AR8"/>
     <mergeCell ref="AS8:AS10"/>
     <mergeCell ref="AT8:AZ8"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AO9"/>
-    <mergeCell ref="BA8:BA10"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AU9:AW9"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="BB8:BB10"/>
-    <mergeCell ref="BC8:BC10"/>
-    <mergeCell ref="BD8:BD10"/>
-    <mergeCell ref="BE8:BE10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:BE3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:BE5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=TIM_2019_MAIN&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId1"/>
@@ -12959,10 +12959,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="10.33203125" customWidth="1" min="2" max="37"/>
+    <col width="10.31640625" customWidth="1" min="2" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22464,11 +22464,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -22490,13 +22490,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="inlineStr">
+      <c r="A3" s="53" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="C3" s="55" t="inlineStr">
+      <c r="B3" s="40" t="n"/>
+      <c r="C3" s="56" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
@@ -22511,59 +22511,59 @@
       <c r="K3" s="42" t="n"/>
       <c r="L3" s="42" t="n"/>
       <c r="M3" s="42" t="n"/>
-      <c r="N3" s="39" t="n"/>
+      <c r="N3" s="40" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="53" t="inlineStr">
+      <c r="A4" s="54" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="39" t="n"/>
-      <c r="C4" s="54" t="inlineStr">
+      <c r="B4" s="40" t="n"/>
+      <c r="C4" s="55" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="54" t="inlineStr">
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="55" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="55" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="54" t="inlineStr">
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="55" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="54" t="inlineStr">
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="55" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="54" t="inlineStr">
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="55" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="39" t="n"/>
+      <c r="N4" s="40" t="n"/>
     </row>
     <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="53" t="inlineStr">
+      <c r="A5" s="54" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="39" t="n"/>
+      <c r="B5" s="40" t="n"/>
       <c r="C5" s="18" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -23872,10 +23872,10 @@
       <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="20.1640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="20.1796875" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -24101,130 +24101,130 @@
         <v/>
       </c>
       <c r="B2" t="n">
-        <v>17357</v>
+        <v>4606.586746133729</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>8891</v>
+        <v>6122</v>
       </c>
       <c r="D2" s="33" t="n">
+        <v>863.1715869712419</v>
+      </c>
+      <c r="E2" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="n">
-        <v>5169</v>
-      </c>
       <c r="F2" t="n">
-        <v>2396</v>
+        <v>1544.91938085845</v>
       </c>
       <c r="G2" t="n">
-        <v>50194</v>
+        <v>46490.69211967693</v>
       </c>
       <c r="H2" t="n">
-        <v>6855</v>
+        <v>3740.034591589493</v>
       </c>
       <c r="I2" t="n">
-        <v>12480</v>
+        <v>11656.19699168476</v>
       </c>
       <c r="J2" t="n">
-        <v>27814</v>
+        <v>29290.36430828132</v>
       </c>
       <c r="K2" t="n">
-        <v>1796</v>
+        <v>1763</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>22168.58529140342</v>
+        <v>22183.28441398938</v>
       </c>
       <c r="M2" s="36" t="n">
-        <v>9558.414708596578</v>
+        <v>9564.752519858879</v>
       </c>
       <c r="N2" t="n">
-        <v>43901</v>
+        <v>60673.29994424619</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>6776.002000750282</v>
+        <v>10252.13459303441</v>
       </c>
       <c r="P2" s="36" t="n">
-        <v>5135.997999249718</v>
+        <v>8345.494481865559</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>6808.831663596747</v>
+        <v>7384.286435277478</v>
       </c>
       <c r="R2" s="36" t="n">
-        <v>16319.16833640325</v>
+        <v>4815.055079801719</v>
       </c>
       <c r="S2" t="n">
-        <v>84219</v>
+        <v>91220.10853382376</v>
       </c>
       <c r="T2" t="n">
-        <v>21330</v>
+        <v>16136.57588176003</v>
       </c>
       <c r="U2" t="n">
-        <v>14549</v>
+        <v>12803.33625478753</v>
       </c>
       <c r="V2" t="n">
-        <v>78428</v>
+        <v>84154.72230626542</v>
       </c>
       <c r="W2" t="n">
-        <v>183830</v>
+        <v>187678.9699499312</v>
       </c>
       <c r="X2" t="n">
-        <v>9262</v>
+        <v>15257.62831278148</v>
       </c>
       <c r="Y2" t="n">
-        <v>31925</v>
+        <v>43815.53631358068</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>18289.43950714379</v>
+        <v>18441.93183903526</v>
       </c>
       <c r="AA2" s="37" t="n">
-        <v>2152.825140909687</v>
+        <v>2170.774806658802</v>
       </c>
       <c r="AB2" s="36" t="n">
-        <v>426.7353519465198</v>
+        <v>8129.299252850963</v>
       </c>
       <c r="AC2" t="n">
-        <v>276439</v>
+        <v>172828.1366017667</v>
       </c>
       <c r="AD2" t="n">
-        <v>755819</v>
+        <v>206880.5937645395</v>
       </c>
       <c r="AE2" t="n">
-        <v>205251</v>
+        <v>207470</v>
       </c>
       <c r="AF2" t="n">
-        <v>410769</v>
+        <v>453682.3099985701</v>
       </c>
       <c r="AG2" t="n">
-        <v>33038</v>
+        <v>62789.53524494069</v>
       </c>
       <c r="AH2" t="n">
-        <v>21919</v>
+        <v>20539</v>
       </c>
       <c r="AI2" t="n">
-        <v>9534</v>
+        <v>9948</v>
       </c>
       <c r="AJ2" t="n">
-        <v>251674</v>
+        <v>265130</v>
       </c>
       <c r="AK2" t="n">
-        <v>260936</v>
+        <v>60463.70475472053</v>
       </c>
       <c r="AL2" t="n">
-        <v>300103</v>
+        <v>464084.316420674</v>
       </c>
       <c r="AM2" t="n">
-        <v>614686</v>
+        <v>618469</v>
       </c>
       <c r="AN2" t="n">
-        <v>107722</v>
+        <v>80705.41652595345</v>
       </c>
       <c r="AO2" t="n">
-        <v>685678</v>
+        <v>712665.3380539573</v>
       </c>
       <c r="AP2" t="n">
-        <v>112537</v>
+        <v>58662.98909417217</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24471</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -24101,100 +24101,100 @@
         <v/>
       </c>
       <c r="B2" t="n">
-        <v>4606.586746133729</v>
+        <v>4607.901931426672</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>6122</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>863.1715869712419</v>
+        <v>863.4180233544105</v>
       </c>
       <c r="E2" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1544.91938085845</v>
+        <v>1545.36045694373</v>
       </c>
       <c r="G2" t="n">
-        <v>46490.69211967693</v>
+        <v>46503.96526048683</v>
       </c>
       <c r="H2" t="n">
-        <v>3740.034591589493</v>
+        <v>3741.102375343719</v>
       </c>
       <c r="I2" t="n">
-        <v>11656.19699168476</v>
+        <v>11659.52484801308</v>
       </c>
       <c r="J2" t="n">
-        <v>29290.36430828132</v>
+        <v>29298.72673766474</v>
       </c>
       <c r="K2" t="n">
         <v>1763</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>22183.28441398938</v>
+        <v>22189.61776469311</v>
       </c>
       <c r="M2" s="36" t="n">
-        <v>9564.752519858879</v>
+        <v>9567.483266621719</v>
       </c>
       <c r="N2" t="n">
-        <v>60673.29994424619</v>
+        <v>60690.62223429703</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>10252.13459303441</v>
+        <v>10255.06158809194</v>
       </c>
       <c r="P2" s="36" t="n">
-        <v>8345.494481865559</v>
+        <v>8347.877129194208</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>7384.286435277478</v>
+        <v>7386.394656712078</v>
       </c>
       <c r="R2" s="36" t="n">
-        <v>4815.055079801719</v>
+        <v>4816.429783020099</v>
       </c>
       <c r="S2" t="n">
-        <v>91220.10853382376</v>
+        <v>91246.15196940325</v>
       </c>
       <c r="T2" t="n">
-        <v>16136.57588176003</v>
+        <v>16141.18289090752</v>
       </c>
       <c r="U2" t="n">
-        <v>12803.33625478753</v>
+        <v>12806.99162056503</v>
       </c>
       <c r="V2" t="n">
-        <v>84154.72230626542</v>
+        <v>84178.74856675031</v>
       </c>
       <c r="W2" t="n">
-        <v>187678.9699499312</v>
+        <v>187732.5524904705</v>
       </c>
       <c r="X2" t="n">
-        <v>15257.62831278148</v>
+        <v>15261.98438148658</v>
       </c>
       <c r="Y2" t="n">
-        <v>43815.53631358068</v>
+        <v>43828.04569463387</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>18441.93183903526</v>
+        <v>18022.99389384688</v>
       </c>
       <c r="AA2" s="37" t="n">
-        <v>2170.774806658802</v>
+        <v>2599.48755284171</v>
       </c>
       <c r="AB2" s="36" t="n">
-        <v>8129.299252850963</v>
+        <v>7944.629232674323</v>
       </c>
       <c r="AC2" t="n">
-        <v>172828.1366017667</v>
+        <v>172877.4792139852</v>
       </c>
       <c r="AD2" t="n">
-        <v>206880.5937645395</v>
+        <v>206939.6583885895</v>
       </c>
       <c r="AE2" t="n">
         <v>207470</v>
       </c>
       <c r="AF2" t="n">
-        <v>453682.3099985701</v>
+        <v>453811.8367685325</v>
       </c>
       <c r="AG2" t="n">
-        <v>62789.53524494069</v>
+        <v>62807.46172236437</v>
       </c>
       <c r="AH2" t="n">
         <v>20539</v>
@@ -24206,22 +24206,22 @@
         <v>265130</v>
       </c>
       <c r="AK2" t="n">
-        <v>60463.70475472053</v>
+        <v>60480.96720512742</v>
       </c>
       <c r="AL2" t="n">
-        <v>464084.316420674</v>
+        <v>464216.8129742565</v>
       </c>
       <c r="AM2" t="n">
         <v>618469</v>
       </c>
       <c r="AN2" t="n">
-        <v>80705.41652595345</v>
+        <v>105308</v>
       </c>
       <c r="AO2" t="n">
-        <v>712665.3380539573</v>
+        <v>687504</v>
       </c>
       <c r="AP2" t="n">
-        <v>58662.98909417217</v>
+        <v>58679.73743839067</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="2" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1094,6 +1094,11 @@
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>BEbIC BAU Employment by ISIC Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="C1" s="38" t="n">
@@ -1256,18 +1261,18 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="54" max="54"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
-    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
-    <col width="9.1796875" customWidth="1" style="6" min="58" max="61"/>
-    <col width="9.1796875" customWidth="1" style="6" min="62" max="16384"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
+    <col width="9.1640625" customWidth="1" style="6" min="58" max="61"/>
+    <col width="9.1640625" customWidth="1" style="6" min="62" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -12959,10 +12964,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="10.31640625" customWidth="1" min="2" max="37"/>
+    <col width="10.33203125" customWidth="1" min="2" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22464,11 +22469,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1796875" customWidth="1" min="3" max="14"/>
+    <col width="14.1640625" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -23872,10 +23877,10 @@
       <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="20.1796875" customWidth="1" min="1" max="1"/>
-    <col width="10.1796875" customWidth="1" min="2" max="39"/>
+    <col width="20.1640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1640625" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -24101,127 +24106,127 @@
         <v/>
       </c>
       <c r="B2" t="n">
-        <v>4607.901931426672</v>
+        <v>4598.090621664785</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>6122</v>
+        <v>8891</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>863.4180233544105</v>
+        <v>861.5796027874817</v>
       </c>
       <c r="E2" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1545.36045694373</v>
+        <v>1542.070020132686</v>
       </c>
       <c r="G2" t="n">
-        <v>46503.96526048683</v>
+        <v>46404.9473527456</v>
       </c>
       <c r="H2" t="n">
-        <v>3741.102375343719</v>
+        <v>3733.13668622931</v>
       </c>
       <c r="I2" t="n">
-        <v>11659.52484801308</v>
+        <v>11634.698970279</v>
       </c>
       <c r="J2" t="n">
-        <v>29298.72673766474</v>
+        <v>29236.3428397585</v>
       </c>
       <c r="K2" t="n">
-        <v>1763</v>
+        <v>1796</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>22189.61776469311</v>
+        <v>22142.37083612841</v>
       </c>
       <c r="M2" s="36" t="n">
-        <v>9567.483266621719</v>
+        <v>9547.111838720815</v>
       </c>
       <c r="N2" t="n">
-        <v>60690.62223429703</v>
+        <v>60561.39758862451</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>10255.06158809194</v>
+        <v>10233.22614381267</v>
       </c>
       <c r="P2" s="36" t="n">
-        <v>8347.877129194208</v>
+        <v>8330.102530344764</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>7386.394656712078</v>
+        <v>7370.667280765492</v>
       </c>
       <c r="R2" s="36" t="n">
-        <v>4816.429783020099</v>
+        <v>4806.174468291004</v>
       </c>
       <c r="S2" t="n">
-        <v>91246.15196940325</v>
+        <v>91051.86739588698</v>
       </c>
       <c r="T2" t="n">
-        <v>16141.18289090752</v>
+        <v>16106.81450641872</v>
       </c>
       <c r="U2" t="n">
-        <v>12806.99162056503</v>
+        <v>12779.72251549787</v>
       </c>
       <c r="V2" t="n">
-        <v>84178.74856675031</v>
+        <v>83999.51216158214</v>
       </c>
       <c r="W2" t="n">
-        <v>187732.5524904705</v>
+        <v>187332.8256186134</v>
       </c>
       <c r="X2" t="n">
-        <v>15261.98438148658</v>
+        <v>15229.4880179406</v>
       </c>
       <c r="Y2" t="n">
-        <v>43828.04569463387</v>
+        <v>43734.72545063401</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>18022.99389384688</v>
+        <v>17873.96566890132</v>
       </c>
       <c r="AA2" s="37" t="n">
-        <v>2599.48755284171</v>
+        <v>2577.992954438704</v>
       </c>
       <c r="AB2" s="36" t="n">
-        <v>7944.629232674323</v>
+        <v>8036.194884495495</v>
       </c>
       <c r="AC2" t="n">
-        <v>172877.4792139852</v>
+        <v>172509.3822959813</v>
       </c>
       <c r="AD2" t="n">
-        <v>206939.6583885895</v>
+        <v>206499.0350592122</v>
       </c>
       <c r="AE2" t="n">
-        <v>207470</v>
+        <v>205251</v>
       </c>
       <c r="AF2" t="n">
-        <v>453811.8367685325</v>
+        <v>452845.5643585708</v>
       </c>
       <c r="AG2" t="n">
-        <v>62807.46172236437</v>
+        <v>62673.72982626797</v>
       </c>
       <c r="AH2" t="n">
-        <v>20539</v>
+        <v>21919</v>
       </c>
       <c r="AI2" t="n">
-        <v>9948</v>
+        <v>9534</v>
       </c>
       <c r="AJ2" t="n">
-        <v>265130</v>
+        <v>251674</v>
       </c>
       <c r="AK2" t="n">
-        <v>60480.96720512742</v>
+        <v>60352.18896444896</v>
       </c>
       <c r="AL2" t="n">
-        <v>464216.8129742565</v>
+        <v>463228.3859164445</v>
       </c>
       <c r="AM2" t="n">
-        <v>618469</v>
+        <v>614686</v>
       </c>
       <c r="AN2" t="n">
-        <v>105308</v>
+        <v>107722</v>
       </c>
       <c r="AO2" t="n">
-        <v>687504</v>
+        <v>685678</v>
       </c>
       <c r="AP2" t="n">
-        <v>58679.73743839067</v>
+        <v>58554.79444061816</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
